--- a/03 scripts/all columns.xlsx
+++ b/03 scripts/all columns.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="application_test" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="255">
+  <si>
+    <t xml:space="preserve">column name</t>
+  </si>
   <si>
     <t xml:space="preserve">Missing Values</t>
   </si>
@@ -39,10 +42,28 @@
     <t xml:space="preserve">dtype</t>
   </si>
   <si>
+    <t xml:space="preserve">cats</t>
+  </si>
+  <si>
     <t xml:space="preserve">num_cats</t>
   </si>
   <si>
-    <t xml:space="preserve">cats</t>
+    <t xml:space="preserve">NOTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transformer 4</t>
   </si>
   <si>
     <t xml:space="preserve">SK_ID_CURR</t>
@@ -462,24 +483,6 @@
     <t xml:space="preserve">AMT_REQ_CREDIT_BUREAU_YEAR</t>
   </si>
   <si>
-    <t xml:space="preserve">NOTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Keep</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transformer 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">TARGET</t>
   </si>
   <si>
@@ -490,6 +493,9 @@
   </si>
   <si>
     <t xml:space="preserve">Drop the 3rd cat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">LabelEncoder</t>
@@ -884,10 +890,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -896,31 +902,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1376518218623"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0121457489879"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51821862348178"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="197.206477732794"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0445344129555"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -929,12 +956,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -943,18 +970,18 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -963,18 +990,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -983,18 +1010,18 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -1003,18 +1030,18 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1023,12 +1050,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1037,12 +1064,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1051,12 +1078,12 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>24</v>
@@ -1065,12 +1092,12 @@
         <v>0.0492368291482029</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1079,12 +1106,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>911</v>
@@ -1093,18 +1120,18 @@
         <v>1.86894797308387</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1113,18 +1140,18 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1133,18 +1160,18 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1153,18 +1180,18 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1173,18 +1200,18 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1193,12 +1220,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1207,12 +1234,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1221,12 +1248,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1235,12 +1262,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1249,12 +1276,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>32312</v>
@@ -1263,12 +1290,12 @@
         <v>66.2891843098638</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1277,12 +1304,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1291,12 +1318,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1305,12 +1332,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1319,12 +1346,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1333,12 +1360,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1347,12 +1374,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>15605</v>
@@ -1361,18 +1388,18 @@
         <v>32.0141966190711</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>18</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1381,12 +1408,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1395,12 +1422,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1409,12 +1436,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1423,18 +1450,18 @@
         <v>0</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F33" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1443,12 +1470,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1457,12 +1484,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1471,12 +1498,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1485,12 +1512,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1499,12 +1526,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1513,12 +1540,12 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1527,12 +1554,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1541,18 +1568,18 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="F41" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="0" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>20532</v>
@@ -1561,12 +1588,12 @@
         <v>42.1221073362875</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>8</v>
@@ -1575,12 +1602,12 @@
         <v>0.0164122763827343</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>8668</v>
@@ -1589,12 +1616,12 @@
         <v>17.7827014606926</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>23887</v>
@@ -1603,12 +1630,12 @@
         <v>49.0050057442967</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>27641</v>
@@ -1617,12 +1644,12 @@
         <v>56.7064664368948</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>22856</v>
@@ -1631,12 +1658,12 @@
         <v>46.8898736254719</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>31818</v>
@@ -1645,12 +1672,12 @@
         <v>65.2757262432299</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>33495</v>
@@ -1659,12 +1686,12 @@
         <v>68.7161496799606</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>25189</v>
@@ -1673,12 +1700,12 @@
         <v>51.6761037255867</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>23579</v>
@@ -1687,12 +1714,12 @@
         <v>48.3731331035615</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>23321</v>
@@ -1701,12 +1728,12 @@
         <v>47.8438371902183</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>32466</v>
@@ -1715,12 +1742,12 @@
         <v>66.6051206302314</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>28254</v>
@@ -1729,12 +1756,12 @@
         <v>57.9640571147218</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>32780</v>
@@ -1743,12 +1770,12 @@
         <v>67.2493024782537</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>23552</v>
@@ -1757,12 +1784,12 @@
         <v>48.3177416707697</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>33347</v>
@@ -1771,12 +1798,12 @@
         <v>68.41252256688</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>26084</v>
@@ -1785,12 +1812,12 @@
         <v>53.5122271459052</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>23887</v>
@@ -1799,12 +1826,12 @@
         <v>49.0050057442967</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>27641</v>
@@ -1813,12 +1840,12 @@
         <v>56.7064664368948</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>22856</v>
@@ -1827,12 +1854,12 @@
         <v>46.8898736254719</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>31818</v>
@@ -1841,12 +1868,12 @@
         <v>65.2757262432299</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>33495</v>
@@ -1855,12 +1882,12 @@
         <v>68.7161496799606</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>25189</v>
@@ -1869,12 +1896,12 @@
         <v>51.6761037255867</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>23579</v>
@@ -1883,12 +1910,12 @@
         <v>48.3731331035615</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>23321</v>
@@ -1897,12 +1924,12 @@
         <v>47.8438371902183</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>32466</v>
@@ -1911,12 +1938,12 @@
         <v>66.6051206302314</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>28254</v>
@@ -1925,12 +1952,12 @@
         <v>57.9640571147218</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>32780</v>
@@ -1939,12 +1966,12 @@
         <v>67.2493024782537</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>23552</v>
@@ -1953,12 +1980,12 @@
         <v>48.3177416707697</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>33347</v>
@@ -1967,12 +1994,12 @@
         <v>68.41252256688</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>26084</v>
@@ -1981,12 +2008,12 @@
         <v>53.5122271459052</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>23887</v>
@@ -1995,12 +2022,12 @@
         <v>49.0050057442967</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>27641</v>
@@ -2009,12 +2036,12 @@
         <v>56.7064664368948</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>22856</v>
@@ -2023,12 +2050,12 @@
         <v>46.8898736254719</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>31818</v>
@@ -2037,12 +2064,12 @@
         <v>65.2757262432299</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>33495</v>
@@ -2051,12 +2078,12 @@
         <v>68.7161496799606</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>25189</v>
@@ -2065,12 +2092,12 @@
         <v>51.6761037255867</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>23579</v>
@@ -2079,12 +2106,12 @@
         <v>48.3731331035615</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>23321</v>
@@ -2093,12 +2120,12 @@
         <v>47.8438371902183</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>32466</v>
@@ -2107,12 +2134,12 @@
         <v>66.6051206302314</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>28254</v>
@@ -2121,12 +2148,12 @@
         <v>57.9640571147218</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>32780</v>
@@ -2135,12 +2162,12 @@
         <v>67.2493024782537</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>23552</v>
@@ -2149,12 +2176,12 @@
         <v>48.3177416707697</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>33347</v>
@@ -2163,12 +2190,12 @@
         <v>68.41252256688</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>26084</v>
@@ -2177,12 +2204,12 @@
         <v>53.5122271459052</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>32797</v>
@@ -2191,18 +2218,18 @@
         <v>67.2841785655671</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>23619</v>
@@ -2211,18 +2238,18 @@
         <v>48.4551944854751</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>22624</v>
@@ -2231,12 +2258,12 @@
         <v>46.4139176103726</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>23893</v>
@@ -2245,18 +2272,18 @@
         <v>49.0173149515838</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>22209</v>
@@ -2265,18 +2292,18 @@
         <v>45.5625307730182</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F91" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>29</v>
@@ -2285,12 +2312,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>29</v>
@@ -2299,12 +2326,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>29</v>
@@ -2313,12 +2340,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>29</v>
@@ -2327,12 +2354,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -2341,12 +2368,12 @@
         <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -2355,12 +2382,12 @@
         <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -2369,12 +2396,12 @@
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -2383,12 +2410,12 @@
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -2397,12 +2424,12 @@
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -2411,12 +2438,12 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -2425,12 +2452,12 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -2439,12 +2466,12 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -2453,12 +2480,12 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -2467,12 +2494,12 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -2481,12 +2508,12 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
@@ -2495,12 +2522,12 @@
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -2509,12 +2536,12 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -2523,12 +2550,12 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -2537,12 +2564,12 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
@@ -2551,12 +2578,12 @@
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
@@ -2565,12 +2592,12 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -2579,12 +2606,12 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
@@ -2593,12 +2620,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -2607,12 +2634,12 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -2621,12 +2648,12 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>6049</v>
@@ -2635,12 +2662,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>6049</v>
@@ -2649,12 +2676,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>6049</v>
@@ -2663,12 +2690,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>6049</v>
@@ -2677,12 +2704,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>6049</v>
@@ -2691,12 +2718,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6049</v>
@@ -2705,7 +2732,7 @@
         <v>12.409732479895</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2726,8 +2753,8 @@
   </sheetPr>
   <dimension ref="A1:L123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2736,50 +2763,53 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3603238866397"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="12" min="7" style="0" width="11.9959514170041"/>
     <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>144</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -2788,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>1</v>
@@ -2796,7 +2826,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -2805,12 +2835,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -2819,24 +2849,24 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>9</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -2845,27 +2875,27 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>152</v>
-      </c>
       <c r="G5" s="0" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -2874,24 +2904,24 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -2900,24 +2930,24 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>13</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -2926,12 +2956,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -2940,12 +2970,12 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -2954,12 +2984,12 @@
         <v>0</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>12</v>
@@ -2968,12 +2998,15 @@
         <v>0.00390229942993909</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>278</v>
@@ -2982,12 +3015,12 @@
         <v>0.0904032701269223</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1292</v>
@@ -2996,21 +3029,24 @@
         <v>0.420147571956776</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F13" s="0" t="s">
-        <v>22</v>
+      <c r="H13" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -3019,27 +3055,27 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F14" s="0" t="s">
-        <v>155</v>
-      </c>
       <c r="G14" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -3048,27 +3084,27 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="0" t="s">
-        <v>26</v>
-      </c>
       <c r="G15" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -3077,27 +3113,27 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -3106,27 +3142,27 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="G17" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -3135,12 +3171,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -3149,12 +3185,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -3163,12 +3199,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -3177,12 +3213,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -3191,12 +3227,12 @@
         <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>202929</v>
@@ -3205,12 +3241,12 @@
         <v>65.9908100848425</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -3219,12 +3255,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -3233,12 +3269,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -3247,12 +3283,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -3261,12 +3297,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -3275,12 +3311,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -3289,12 +3325,12 @@
         <v>0</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>96391</v>
@@ -3303,21 +3339,21 @@
         <v>31.3455453626049</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F30" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F30" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G30" s="0" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>2</v>
@@ -3326,12 +3362,12 @@
         <v>0.000650383238323182</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -3340,12 +3376,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -3354,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -3368,21 +3404,21 @@
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F34" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="G34" s="0" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -3391,12 +3427,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -3405,12 +3441,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -3419,12 +3455,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -3433,12 +3469,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -3447,12 +3483,12 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -3461,12 +3497,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -3475,12 +3511,12 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -3489,18 +3525,18 @@
         <v>0</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="F42" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F42" s="0" t="n">
         <v>58</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>173378</v>
@@ -3509,12 +3545,12 @@
         <v>56.3810725469983</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>660</v>
@@ -3523,12 +3559,12 @@
         <v>0.21462646864665</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>60965</v>
@@ -3537,12 +3573,12 @@
         <v>19.8253070621864</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>156061</v>
@@ -3551,12 +3587,12 @@
         <v>50.7497292779771</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>179943</v>
@@ -3565,12 +3601,12 @@
         <v>58.5159555267942</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>150007</v>
@@ -3579,12 +3615,12 @@
         <v>48.7810192155728</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>204488</v>
@@ -3593,12 +3629,12 @@
         <v>66.4977838191154</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>214865</v>
@@ -3607,12 +3643,12 @@
         <v>69.8722972511552</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>163891</v>
@@ -3621,12 +3657,12 @@
         <v>53.2959796560123</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>154828</v>
@@ -3635,12 +3671,12 @@
         <v>50.3487680115508</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>153020</v>
@@ -3649,12 +3685,12 @@
         <v>49.7608215641067</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>208642</v>
@@ -3663,12 +3699,12 @@
         <v>67.8486298051127</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>182590</v>
@@ -3677,12 +3713,12 @@
         <v>59.3767377427149</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>210199</v>
@@ -3691,12 +3727,12 @@
         <v>68.3549531561473</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>154350</v>
@@ -3705,12 +3741,12 @@
         <v>50.1933264175916</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>213514</v>
@@ -3719,12 +3755,12 @@
         <v>69.4329633736679</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>169682</v>
@@ -3733,12 +3769,12 @@
         <v>55.1791643225771</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>156061</v>
@@ -3747,12 +3783,12 @@
         <v>50.7497292779771</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>179943</v>
@@ -3761,12 +3797,12 @@
         <v>58.5159555267942</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>150007</v>
@@ -3775,12 +3811,12 @@
         <v>48.7810192155728</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>204488</v>
@@ -3789,12 +3825,12 @@
         <v>66.4977838191154</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>214865</v>
@@ -3803,12 +3839,12 @@
         <v>69.8722972511552</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>163891</v>
@@ -3817,12 +3853,12 @@
         <v>53.2959796560123</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>154828</v>
@@ -3831,12 +3867,12 @@
         <v>50.3487680115508</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>153020</v>
@@ -3845,12 +3881,12 @@
         <v>49.7608215641067</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>208642</v>
@@ -3859,12 +3895,12 @@
         <v>67.8486298051127</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>182590</v>
@@ -3873,12 +3909,12 @@
         <v>59.3767377427149</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>210199</v>
@@ -3887,12 +3923,12 @@
         <v>68.3549531561473</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>154350</v>
@@ -3901,12 +3937,12 @@
         <v>50.1933264175916</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>213514</v>
@@ -3915,12 +3951,12 @@
         <v>69.4329633736679</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>169682</v>
@@ -3929,12 +3965,12 @@
         <v>55.1791643225771</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>156061</v>
@@ -3943,12 +3979,12 @@
         <v>50.7497292779771</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>179943</v>
@@ -3957,12 +3993,12 @@
         <v>58.5159555267942</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>150007</v>
@@ -3971,12 +4007,12 @@
         <v>48.7810192155728</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>204488</v>
@@ -3985,12 +4021,12 @@
         <v>66.4977838191154</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>214865</v>
@@ -3999,12 +4035,12 @@
         <v>69.8722972511552</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>163891</v>
@@ -4013,12 +4049,12 @@
         <v>53.2959796560123</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>154828</v>
@@ -4027,12 +4063,12 @@
         <v>50.3487680115508</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>153020</v>
@@ -4041,12 +4077,12 @@
         <v>49.7608215641067</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>208642</v>
@@ -4055,12 +4091,12 @@
         <v>67.8486298051127</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>182590</v>
@@ -4069,12 +4105,12 @@
         <v>59.3767377427149</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>210199</v>
@@ -4083,12 +4119,12 @@
         <v>68.3549531561473</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>154350</v>
@@ -4097,12 +4133,12 @@
         <v>50.1933264175916</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>213514</v>
@@ -4111,12 +4147,12 @@
         <v>69.4329633736679</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>169682</v>
@@ -4125,12 +4161,12 @@
         <v>55.1791643225771</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>210295</v>
@@ -4139,18 +4175,18 @@
         <v>68.3861715515868</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F88" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>154297</v>
@@ -4159,18 +4195,18 @@
         <v>50.176091261776</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>148431</v>
@@ -4179,12 +4215,12 @@
         <v>48.2685172237741</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>156341</v>
@@ -4193,18 +4229,18 @@
         <v>50.8407829313423</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>145755</v>
@@ -4213,18 +4249,18 @@
         <v>47.3983044508977</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="F92" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1021</v>
@@ -4233,12 +4269,12 @@
         <v>0.332020643163984</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1021</v>
@@ -4247,12 +4283,12 @@
         <v>0.332020643163984</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1021</v>
@@ -4261,12 +4297,12 @@
         <v>0.332020643163984</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>1021</v>
@@ -4275,12 +4311,12 @@
         <v>0.332020643163984</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1</v>
@@ -4289,12 +4325,12 @@
         <v>0.000325191619161591</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -4303,12 +4339,12 @@
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -4317,12 +4353,12 @@
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -4331,12 +4367,12 @@
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -4345,12 +4381,12 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -4359,12 +4395,12 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -4373,12 +4409,12 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -4387,12 +4423,12 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -4401,12 +4437,12 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -4415,12 +4451,12 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
@@ -4429,12 +4465,12 @@
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -4443,12 +4479,12 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -4457,12 +4493,12 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -4471,12 +4507,12 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
@@ -4485,12 +4521,12 @@
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
@@ -4499,12 +4535,12 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -4513,12 +4549,12 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
@@ -4527,12 +4563,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -4541,12 +4577,12 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -4555,12 +4591,12 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>0</v>
@@ -4569,12 +4605,12 @@
         <v>0</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>41519</v>
@@ -4583,12 +4619,12 @@
         <v>13.5016308359701</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>41519</v>
@@ -4597,12 +4633,12 @@
         <v>13.5016308359701</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>41519</v>
@@ -4611,12 +4647,12 @@
         <v>13.5016308359701</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>41519</v>
@@ -4625,12 +4661,12 @@
         <v>13.5016308359701</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>41519</v>
@@ -4639,12 +4675,12 @@
         <v>13.5016308359701</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B123" s="0" t="n">
         <v>41519</v>
@@ -4653,7 +4689,7 @@
         <v>13.5016308359701</v>
       </c>
       <c r="D123" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4672,10 +4708,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4684,31 +4720,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.06882591093117"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.98380566801619"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.98380566801619"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4717,12 +4774,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4731,12 +4788,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4745,12 +4802,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4759,12 +4816,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4773,12 +4830,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2905</v>
@@ -4787,12 +4844,12 @@
         <v>0.0213518146212669</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4801,12 +4858,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2905</v>
@@ -4815,7 +4872,7 @@
         <v>0.0213518146212669</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4834,10 +4891,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4846,31 +4903,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3522267206478"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4879,12 +4957,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4893,12 +4971,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4907,13 +4985,13 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -4932,10 +5010,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -4944,31 +5022,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="84.4817813765182"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74089068825911"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4977,12 +5076,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4991,12 +5090,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5005,12 +5104,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>26071</v>
@@ -5019,12 +5118,12 @@
         <v>0.260674600389267</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26087</v>
@@ -5033,12 +5132,12 @@
         <v>0.260834578664217</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5047,18 +5146,18 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5067,12 +5166,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5081,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5100,10 +5199,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5118,25 +5217,46 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5145,12 +5265,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5159,7 +5279,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5178,10 +5298,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5190,31 +5310,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1457489878543"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1457489878543"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5223,12 +5364,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5237,12 +5378,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5251,18 +5392,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5271,18 +5412,18 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5291,12 +5432,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5305,12 +5446,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>105553</v>
@@ -5319,12 +5460,12 @@
         <v>6.14957341642061</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633653</v>
@@ -5333,12 +5474,12 @@
         <v>36.9169577751004</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1124488</v>
@@ -5347,12 +5488,12 @@
         <v>65.5132635915984</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5361,12 +5502,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -5375,12 +5516,12 @@
         <v>0.000757386852230329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>257669</v>
@@ -5389,12 +5530,12 @@
         <v>15.011931755949</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>591780</v>
@@ -5403,12 +5544,12 @@
         <v>34.4774147240665</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5417,12 +5558,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5431,18 +5572,18 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>193</v>
+      <c r="E16" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5451,12 +5592,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1226791</v>
@@ -5465,7 +5606,7 @@
         <v>71.4734902949614</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5484,10 +5625,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5496,31 +5637,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0890688259109"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.60323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.07692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5529,12 +5691,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5543,12 +5705,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5557,12 +5719,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5571,12 +5733,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5585,12 +5747,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>749816</v>
@@ -5599,12 +5761,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5613,12 +5775,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>749816</v>
@@ -5627,12 +5789,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>749816</v>
@@ -5641,12 +5803,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>305236</v>
@@ -5655,12 +5817,12 @@
         <v>7.94820837473622</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>767988</v>
@@ -5669,12 +5831,12 @@
         <v>19.9980626574091</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5683,12 +5845,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5697,12 +5859,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5711,12 +5873,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5725,12 +5887,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>749816</v>
@@ -5739,12 +5901,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5753,12 +5915,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>749816</v>
@@ -5767,12 +5929,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>749816</v>
@@ -5781,12 +5943,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>305236</v>
@@ -5795,12 +5957,12 @@
         <v>7.94820837473622</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -5809,18 +5971,18 @@
         <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -5829,12 +5991,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -5843,7 +6005,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -5862,10 +6024,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5874,31 +6036,52 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0526315789474"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6518218623482"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.60323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1336032388664"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="101.696356275304"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.080971659919"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5907,12 +6090,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5921,12 +6104,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5935,18 +6118,18 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="F4" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>372235</v>
@@ -5955,12 +6138,12 @@
         <v>22.2866650620819</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5969,12 +6152,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -5983,12 +6166,12 @@
         <v>5.98725672279121E-005</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>895844</v>
@@ -5997,12 +6180,12 @@
         <v>53.6364801157217</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>385515</v>
@@ -6011,12 +6194,12 @@
         <v>23.0817727548685</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -6025,18 +6208,18 @@
         <v>0</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6045,12 +6228,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6059,18 +6242,18 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="0" t="n">
         <v>2</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6079,12 +6262,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>895844</v>
@@ -6093,12 +6276,12 @@
         <v>53.6364801157217</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1664263</v>
@@ -6107,12 +6290,12 @@
         <v>99.6436983524267</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1664263</v>
@@ -6121,12 +6304,12 @@
         <v>99.6436983524267</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6135,18 +6318,18 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="0" t="n">
         <v>25</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6155,18 +6338,18 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F18" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6175,12 +6358,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6189,18 +6372,18 @@
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6209,18 +6392,18 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="0" t="n">
         <v>9</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>820405</v>
@@ -6229,18 +6412,18 @@
         <v>49.1197535166152</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>7</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6249,18 +6432,18 @@
         <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="0" t="n">
         <v>4</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6269,18 +6452,18 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>28</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6289,18 +6472,18 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6309,18 +6492,18 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>3</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6329,18 +6512,18 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6349,12 +6532,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -6363,18 +6546,18 @@
         <v>0</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="0" t="n">
         <v>11</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>372230</v>
@@ -6383,12 +6566,12 @@
         <v>22.2863656992457</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -6397,18 +6580,18 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="F31" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>346</v>
@@ -6417,18 +6600,18 @@
         <v>0.0207159082608576</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="0" t="n">
         <v>17</v>
-      </c>
-      <c r="F32" s="0" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>673065</v>
@@ -6437,12 +6620,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>673065</v>
@@ -6451,12 +6634,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>673065</v>
@@ -6465,12 +6648,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>673065</v>
@@ -6479,12 +6662,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>673065</v>
@@ -6493,12 +6676,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>673065</v>
@@ -6507,7 +6690,7 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/03 scripts/all columns.xlsx
+++ b/03 scripts/all columns.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="254">
   <si>
     <t xml:space="preserve">column name</t>
   </si>
@@ -493,9 +493,6 @@
   </si>
   <si>
     <t xml:space="preserve">Drop the 3rd cat?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w</t>
   </si>
   <si>
     <t xml:space="preserve">LabelEncoder</t>
@@ -898,13 +895,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0121457489879"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.51821862348178"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0445344129555"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2754,19 +2751,19 @@
   <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.412955465587"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3603238866397"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="11.9959514170041"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3000,9 +2997,6 @@
       <c r="D11" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3041,7 +3035,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3058,13 +3052,13 @@
         <v>15</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>1</v>
@@ -3093,7 +3087,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>1</v>
@@ -3116,13 +3110,13 @@
         <v>15</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>1</v>
@@ -3151,7 +3145,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>1</v>
@@ -3348,7 +3342,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3407,7 @@
         <v>7</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4716,13 +4710,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1497975708502"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.06882591093117"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="4.98380566801619"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03643724696356"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4765,7 +4759,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4793,7 +4787,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4807,7 +4801,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4821,7 +4815,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4835,7 +4829,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2905</v>
@@ -4849,7 +4843,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4863,7 +4857,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2905</v>
@@ -4899,13 +4893,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7975708502024"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3522267206478"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4948,7 +4942,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4962,7 +4956,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4976,7 +4970,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4988,7 +4982,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5018,13 +5012,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74089068825911"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5061,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5095,7 +5089,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5109,7 +5103,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>26071</v>
@@ -5123,7 +5117,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26087</v>
@@ -5137,7 +5131,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5149,7 +5143,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5157,7 +5151,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5171,7 +5165,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5207,13 +5201,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2914979757085"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.06882591093117"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.98380566801619"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03643724696356"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5306,13 +5300,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5369,7 +5363,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5383,7 +5377,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5395,7 +5389,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -5403,7 +5397,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5415,7 +5409,7 @@
         <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -5423,7 +5417,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5437,7 +5431,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5451,7 +5445,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>105553</v>
@@ -5465,7 +5459,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633653</v>
@@ -5479,7 +5473,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1124488</v>
@@ -5493,7 +5487,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5507,7 +5501,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -5521,7 +5515,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>257669</v>
@@ -5535,7 +5529,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>591780</v>
@@ -5549,7 +5543,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5563,7 +5557,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5575,7 +5569,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -5583,7 +5577,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5633,13 +5627,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8785425101215"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0890688259109"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.60323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.07692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,7 +5676,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5710,7 +5704,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5724,7 +5718,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5738,7 +5732,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5752,7 +5746,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>749816</v>
@@ -5766,7 +5760,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5780,7 +5774,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>749816</v>
@@ -5794,7 +5788,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>749816</v>
@@ -5808,7 +5802,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>305236</v>
@@ -5822,7 +5816,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>767988</v>
@@ -5836,7 +5830,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5850,7 +5844,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5864,7 +5858,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5878,7 +5872,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5892,7 +5886,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>749816</v>
@@ -5906,7 +5900,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5920,7 +5914,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>749816</v>
@@ -5934,7 +5928,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>749816</v>
@@ -5948,7 +5942,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>305236</v>
@@ -5962,7 +5956,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -5974,7 +5968,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -5982,7 +5976,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -5996,7 +5990,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6032,13 +6026,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.0364372469636"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0526315789474"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.6518218623482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.60323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.080971659919"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1336032388664"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6081,7 +6075,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6121,7 +6115,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -6143,7 +6137,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6171,7 +6165,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>895844</v>
@@ -6233,7 +6227,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6253,7 +6247,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6267,7 +6261,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>895844</v>
@@ -6281,7 +6275,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1664263</v>
@@ -6295,7 +6289,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1664263</v>
@@ -6309,7 +6303,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6321,7 +6315,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>25</v>
@@ -6329,7 +6323,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6341,7 +6335,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -6349,7 +6343,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6363,7 +6357,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6375,7 +6369,7 @@
         <v>15</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -6383,7 +6377,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6395,7 +6389,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6423,7 +6417,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6435,7 +6429,7 @@
         <v>15</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -6443,7 +6437,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6455,7 +6449,7 @@
         <v>15</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>28</v>
@@ -6463,7 +6457,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6475,7 +6469,7 @@
         <v>15</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -6483,7 +6477,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6495,7 +6489,7 @@
         <v>15</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -6503,7 +6497,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6515,7 +6509,7 @@
         <v>15</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -6523,7 +6517,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6537,7 +6531,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -6549,7 +6543,7 @@
         <v>15</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>11</v>
@@ -6557,7 +6551,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>372230</v>
@@ -6571,7 +6565,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -6583,7 +6577,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5</v>
@@ -6591,7 +6585,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>346</v>
@@ -6603,7 +6597,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>17</v>
@@ -6611,7 +6605,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>673065</v>
@@ -6625,7 +6619,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>673065</v>
@@ -6639,7 +6633,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>673065</v>
@@ -6653,7 +6647,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>673065</v>
@@ -6667,7 +6661,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>673065</v>
@@ -6681,7 +6675,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>673065</v>

--- a/03 scripts/all columns.xlsx
+++ b/03 scripts/all columns.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="256">
   <si>
     <t xml:space="preserve">column name</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">num_cats</t>
   </si>
   <si>
+    <t xml:space="preserve">ordinal</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOTES</t>
   </si>
   <si>
@@ -483,88 +486,91 @@
     <t xml:space="preserve">AMT_REQ_CREDIT_BUREAU_YEAR</t>
   </si>
   <si>
+    <t xml:space="preserve">LabelBinarizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F, M, XNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drop the 3rd cat?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imputer1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CategoricalImputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Businessman, Commercial associate, Maternity leave, Pensioner, State servant, Student, Unemployed, Working</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDINAL!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ordinal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil marriage, Married, Separated, Single / not married, Unknown, Widow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nominal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_ID_PREV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_INSTALMENT_VERSION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUM_INSTALMENT_NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYS_INSTALMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAYS_ENTRY_PAYMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMT_INSTALMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMT_PAYMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_ID_BUREAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTHS_BALANCE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0, 1, 2, 3, 4, 5, C, X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT_INSTALMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CNT_INSTALMENT_FUTURE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME_CONTRACT_STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Active, Amortized debt, Approved, Canceled, Completed, Demand, Returned to the store, Signed, XNA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_DPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SK_DPD_DEF</t>
+  </si>
+  <si>
     <t xml:space="preserve">TARGET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabelBinarizer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F, M, XNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drop the 3rd cat?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LabelEncoder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Businessman, Commercial associate, Maternity leave, Pensioner, State servant, Student, Unemployed, Working</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORDINAL!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinal?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil marriage, Married, Separated, Single / not married, Unknown, Widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nominal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nominal?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK_ID_PREV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_INSTALMENT_VERSION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUM_INSTALMENT_NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYS_INSTALMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DAYS_ENTRY_PAYMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMT_INSTALMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMT_PAYMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK_ID_BUREAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MONTHS_BALANCE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 1, 2, 3, 4, 5, C, X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNT_INSTALMENT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CNT_INSTALMENT_FUTURE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NAME_CONTRACT_STATUS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active, Amortized debt, Approved, Canceled, Completed, Demand, Returned to the store, Signed, XNA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK_DPD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SK_DPD_DEF</t>
   </si>
   <si>
     <t xml:space="preserve">CREDIT_ACTIVE</t>
@@ -796,8 +802,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -865,8 +872,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -887,20 +898,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -941,10 +952,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -953,12 +967,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -967,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
@@ -978,7 +992,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -987,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>2</v>
@@ -998,7 +1012,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -1007,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>2</v>
@@ -1018,19 +1032,19 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>20</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
@@ -1038,7 +1052,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -1047,12 +1061,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -1061,12 +1075,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -1075,12 +1089,12 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>24</v>
@@ -1089,12 +1103,12 @@
         <v>0.0492368291482029</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -1103,12 +1117,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>911</v>
@@ -1117,10 +1131,10 @@
         <v>1.86894797308387</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>7</v>
@@ -1128,7 +1142,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -1137,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>7</v>
@@ -1148,7 +1162,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -1157,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>5</v>
@@ -1168,7 +1182,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -1177,10 +1191,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>5</v>
@@ -1188,7 +1202,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -1197,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
@@ -1208,7 +1222,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -1217,12 +1231,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -1231,12 +1245,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -1245,12 +1259,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -1259,12 +1273,12 @@
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -1273,12 +1287,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>32312</v>
@@ -1287,12 +1301,12 @@
         <v>66.2891843098638</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -1301,12 +1315,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -1315,12 +1329,12 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -1329,12 +1343,12 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -1343,12 +1357,12 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -1357,12 +1371,12 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -1371,12 +1385,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>15605</v>
@@ -1385,10 +1399,10 @@
         <v>32.0141966190711</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>18</v>
@@ -1396,7 +1410,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0</v>
@@ -1405,12 +1419,12 @@
         <v>0</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -1419,12 +1433,12 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
@@ -1433,12 +1447,12 @@
         <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
@@ -1447,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>7</v>
@@ -1458,7 +1472,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
@@ -1467,12 +1481,12 @@
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
@@ -1481,12 +1495,12 @@
         <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -1495,12 +1509,12 @@
         <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
@@ -1509,12 +1523,12 @@
         <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
@@ -1523,12 +1537,12 @@
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
@@ -1537,12 +1551,12 @@
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
@@ -1551,12 +1565,12 @@
         <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
@@ -1565,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>58</v>
@@ -1576,7 +1590,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>20532</v>
@@ -1585,12 +1599,12 @@
         <v>42.1221073362875</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>8</v>
@@ -1599,12 +1613,12 @@
         <v>0.0164122763827343</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>8668</v>
@@ -1613,12 +1627,12 @@
         <v>17.7827014606926</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>23887</v>
@@ -1627,12 +1641,12 @@
         <v>49.0050057442967</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>27641</v>
@@ -1641,12 +1655,12 @@
         <v>56.7064664368948</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>22856</v>
@@ -1655,12 +1669,12 @@
         <v>46.8898736254719</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>31818</v>
@@ -1669,12 +1683,12 @@
         <v>65.2757262432299</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>33495</v>
@@ -1683,12 +1697,12 @@
         <v>68.7161496799606</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>25189</v>
@@ -1697,12 +1711,12 @@
         <v>51.6761037255867</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>23579</v>
@@ -1711,12 +1725,12 @@
         <v>48.3731331035615</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>23321</v>
@@ -1725,12 +1739,12 @@
         <v>47.8438371902183</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>32466</v>
@@ -1739,12 +1753,12 @@
         <v>66.6051206302314</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>28254</v>
@@ -1753,12 +1767,12 @@
         <v>57.9640571147218</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>32780</v>
@@ -1767,12 +1781,12 @@
         <v>67.2493024782537</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>23552</v>
@@ -1781,12 +1795,12 @@
         <v>48.3177416707697</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>33347</v>
@@ -1795,12 +1809,12 @@
         <v>68.41252256688</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>26084</v>
@@ -1809,12 +1823,12 @@
         <v>53.5122271459052</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>23887</v>
@@ -1823,12 +1837,12 @@
         <v>49.0050057442967</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>27641</v>
@@ -1837,12 +1851,12 @@
         <v>56.7064664368948</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>22856</v>
@@ -1851,12 +1865,12 @@
         <v>46.8898736254719</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>31818</v>
@@ -1865,12 +1879,12 @@
         <v>65.2757262432299</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>33495</v>
@@ -1879,12 +1893,12 @@
         <v>68.7161496799606</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>25189</v>
@@ -1893,12 +1907,12 @@
         <v>51.6761037255867</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>23579</v>
@@ -1907,12 +1921,12 @@
         <v>48.3731331035615</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>23321</v>
@@ -1921,12 +1935,12 @@
         <v>47.8438371902183</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>32466</v>
@@ -1935,12 +1949,12 @@
         <v>66.6051206302314</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>28254</v>
@@ -1949,12 +1963,12 @@
         <v>57.9640571147218</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>32780</v>
@@ -1963,12 +1977,12 @@
         <v>67.2493024782537</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>23552</v>
@@ -1977,12 +1991,12 @@
         <v>48.3177416707697</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>33347</v>
@@ -1991,12 +2005,12 @@
         <v>68.41252256688</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>26084</v>
@@ -2005,12 +2019,12 @@
         <v>53.5122271459052</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>23887</v>
@@ -2019,12 +2033,12 @@
         <v>49.0050057442967</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>27641</v>
@@ -2033,12 +2047,12 @@
         <v>56.7064664368948</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>22856</v>
@@ -2047,12 +2061,12 @@
         <v>46.8898736254719</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>31818</v>
@@ -2061,12 +2075,12 @@
         <v>65.2757262432299</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>33495</v>
@@ -2075,12 +2089,12 @@
         <v>68.7161496799606</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>25189</v>
@@ -2089,12 +2103,12 @@
         <v>51.6761037255867</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>23579</v>
@@ -2103,12 +2117,12 @@
         <v>48.3731331035615</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>23321</v>
@@ -2117,12 +2131,12 @@
         <v>47.8438371902183</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>32466</v>
@@ -2131,12 +2145,12 @@
         <v>66.6051206302314</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>28254</v>
@@ -2145,12 +2159,12 @@
         <v>57.9640571147218</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>32780</v>
@@ -2159,12 +2173,12 @@
         <v>67.2493024782537</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>23552</v>
@@ -2173,12 +2187,12 @@
         <v>48.3177416707697</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>33347</v>
@@ -2187,12 +2201,12 @@
         <v>68.41252256688</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>26084</v>
@@ -2201,12 +2215,12 @@
         <v>53.5122271459052</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>32797</v>
@@ -2215,10 +2229,10 @@
         <v>67.2841785655671</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>4</v>
@@ -2226,7 +2240,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>23619</v>
@@ -2235,10 +2249,10 @@
         <v>48.4551944854751</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F88" s="0" t="n">
         <v>3</v>
@@ -2246,7 +2260,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>22624</v>
@@ -2255,12 +2269,12 @@
         <v>46.4139176103726</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="0" t="n">
         <v>23893</v>
@@ -2269,10 +2283,10 @@
         <v>49.0173149515838</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>7</v>
@@ -2280,7 +2294,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B91" s="0" t="n">
         <v>22209</v>
@@ -2289,10 +2303,10 @@
         <v>45.5625307730182</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>2</v>
@@ -2300,7 +2314,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>29</v>
@@ -2309,12 +2323,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>29</v>
@@ -2323,12 +2337,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>29</v>
@@ -2337,12 +2351,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>29</v>
@@ -2351,12 +2365,12 @@
         <v>0.0594945018874118</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>0</v>
@@ -2365,12 +2379,12 @@
         <v>0</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>0</v>
@@ -2379,12 +2393,12 @@
         <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
@@ -2393,12 +2407,12 @@
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
@@ -2407,12 +2421,12 @@
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
@@ -2421,12 +2435,12 @@
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
@@ -2435,12 +2449,12 @@
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
@@ -2449,12 +2463,12 @@
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
@@ -2463,12 +2477,12 @@
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
@@ -2477,12 +2491,12 @@
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
@@ -2491,12 +2505,12 @@
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
@@ -2505,12 +2519,12 @@
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
@@ -2519,12 +2533,12 @@
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
@@ -2533,12 +2547,12 @@
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
@@ -2547,12 +2561,12 @@
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
@@ -2561,12 +2575,12 @@
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
@@ -2575,12 +2589,12 @@
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
@@ -2589,12 +2603,12 @@
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
@@ -2603,12 +2617,12 @@
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
@@ -2617,12 +2631,12 @@
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
@@ -2631,12 +2645,12 @@
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
@@ -2645,12 +2659,12 @@
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B117" s="0" t="n">
         <v>6049</v>
@@ -2659,12 +2673,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>6049</v>
@@ -2673,12 +2687,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>6049</v>
@@ -2687,12 +2701,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>6049</v>
@@ -2701,12 +2715,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>6049</v>
@@ -2715,12 +2729,12 @@
         <v>12.409732479895</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>6049</v>
@@ -2729,7 +2743,7 @@
         <v>12.409732479895</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2748,22 +2762,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L123"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.7408906882591"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="12" min="7" style="0" width="12.1052631578947"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.5182186234818"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="17.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2773,7 +2789,7 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
@@ -2803,1887 +2819,2560 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>153</v>
+        <v>21</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>152</v>
+        <v>14</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0.00390229942993909</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0.00390229942993909</v>
+        <v>278</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0.0904032701269223</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>278</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0.0904032701269223</v>
+        <v>1292</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>0.420147571956776</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1292</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0.420147571956776</v>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>155</v>
+        <v>8</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>156</v>
+        <v>34</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>159</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="H16" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>152</v>
+        <v>25</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>202929</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>65.9908100848425</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>202929</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>65.9908100848425</v>
+        <v>0</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>96391</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>31.3455453626049</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>96391</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>31.3455453626049</v>
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>0.000650383238323182</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>158</v>
+        <v>25</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>0.000650383238323182</v>
+        <v>0</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>161</v>
+        <v>14</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C39" s="0" t="n">
+      <c r="C39" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C40" s="0" t="n">
+      <c r="C40" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C41" s="0" t="n">
+      <c r="C41" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>0</v>
+        <v>173378</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>56.3810725469983</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>58</v>
+        <v>25</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>173378</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>56.3810725469983</v>
+        <v>660</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>0.21462646864665</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>660</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>0.21462646864665</v>
+        <v>60965</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>19.8253070621864</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>60965</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>19.8253070621864</v>
+        <v>156061</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>50.7497292779771</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>156061</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>50.7497292779771</v>
+        <v>179943</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>58.5159555267942</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>179943</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>58.5159555267942</v>
+        <v>150007</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>48.7810192155728</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>150007</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>48.7810192155728</v>
+        <v>204488</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>66.4977838191154</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>204488</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>66.4977838191154</v>
+        <v>214865</v>
+      </c>
+      <c r="C49" s="1" t="n">
+        <v>69.8722972511552</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>214865</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>69.8722972511552</v>
+        <v>163891</v>
+      </c>
+      <c r="C50" s="1" t="n">
+        <v>53.2959796560123</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>163891</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>53.2959796560123</v>
+        <v>154828</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>50.3487680115508</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>154828</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>50.3487680115508</v>
+        <v>153020</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>49.7608215641067</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>153020</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>49.7608215641067</v>
+        <v>208642</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>67.8486298051127</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>208642</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>67.8486298051127</v>
+        <v>182590</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>59.3767377427149</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>182590</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>59.3767377427149</v>
+        <v>210199</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>68.3549531561473</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>210199</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>68.3549531561473</v>
+        <v>154350</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>50.1933264175916</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>154350</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>50.1933264175916</v>
+        <v>213514</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>69.4329633736679</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>213514</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>69.4329633736679</v>
+        <v>169682</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>55.1791643225771</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>169682</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>55.1791643225771</v>
+        <v>156061</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>50.7497292779771</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>156061</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>50.7497292779771</v>
+        <v>179943</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>58.5159555267942</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>179943</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>58.5159555267942</v>
+        <v>150007</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>48.7810192155728</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>150007</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>48.7810192155728</v>
+        <v>204488</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>66.4977838191154</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>204488</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>66.4977838191154</v>
+        <v>214865</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>69.8722972511552</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>214865</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>69.8722972511552</v>
+        <v>163891</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>53.2959796560123</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>163891</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>53.2959796560123</v>
+        <v>154828</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>50.3487680115508</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>154828</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>50.3487680115508</v>
+        <v>153020</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>49.7608215641067</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>153020</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>49.7608215641067</v>
+        <v>208642</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>67.8486298051127</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>208642</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>67.8486298051127</v>
+        <v>182590</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>59.3767377427149</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>182590</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>59.3767377427149</v>
+        <v>210199</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>68.3549531561473</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>210199</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>68.3549531561473</v>
+        <v>154350</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>50.1933264175916</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>154350</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>50.1933264175916</v>
+        <v>213514</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>69.4329633736679</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>213514</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>69.4329633736679</v>
+        <v>169682</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>55.1791643225771</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>169682</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>55.1791643225771</v>
+        <v>156061</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>50.7497292779771</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>156061</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>50.7497292779771</v>
+        <v>179943</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>58.5159555267942</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>179943</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>58.5159555267942</v>
+        <v>150007</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>48.7810192155728</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>150007</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>48.7810192155728</v>
+        <v>204488</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>66.4977838191154</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>204488</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>66.4977838191154</v>
+        <v>214865</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>69.8722972511552</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>214865</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>69.8722972511552</v>
+        <v>163891</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>53.2959796560123</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>163891</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>53.2959796560123</v>
+        <v>154828</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>50.3487680115508</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>154828</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>50.3487680115508</v>
+        <v>153020</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>49.7608215641067</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>153020</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>49.7608215641067</v>
+        <v>208642</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>67.8486298051127</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>208642</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>67.8486298051127</v>
+        <v>182590</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>59.3767377427149</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>182590</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>59.3767377427149</v>
+        <v>210199</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>68.3549531561473</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>210199</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>68.3549531561473</v>
+        <v>154350</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>50.1933264175916</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>154350</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>50.1933264175916</v>
+        <v>213514</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>69.4329633736679</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>213514</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>69.4329633736679</v>
+        <v>169682</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>55.1791643225771</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>169682</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>55.1791643225771</v>
+        <v>210295</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>68.3861715515868</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>210295</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>68.3861715515868</v>
+        <v>154297</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>50.176091261776</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="I88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>154297</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>50.176091261776</v>
+        <v>148431</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>48.2685172237741</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F89" s="0" t="n">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="I89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>148431</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>48.2685172237741</v>
+        <v>156341</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>50.8407829313423</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="E90" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>156341</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>50.8407829313423</v>
+        <v>145755</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>47.3983044508977</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="I91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>145755</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>47.3983044508977</v>
+        <v>1021</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>0.332020643163984</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" s="0" t="n">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="I92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C93" s="0" t="n">
+      <c r="C93" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C94" s="0" t="n">
+      <c r="C94" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C95" s="0" t="n">
+      <c r="C95" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>1021</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.332020643163984</v>
+        <v>1</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>0.000325191619161591</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.000325191619161591</v>
+        <v>0</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="I97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C98" s="0" t="n">
+      <c r="C98" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B99" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C99" s="0" t="n">
+      <c r="C99" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C100" s="0" t="n">
+      <c r="C100" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B101" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C101" s="0" t="n">
+      <c r="C101" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C102" s="0" t="n">
+      <c r="C102" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C103" s="0" t="n">
+      <c r="C103" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C104" s="0" t="n">
+      <c r="C104" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C105" s="0" t="n">
+      <c r="C105" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C106" s="0" t="n">
+      <c r="C106" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C107" s="0" t="n">
+      <c r="C107" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C108" s="0" t="n">
+      <c r="C108" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B109" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C109" s="0" t="n">
+      <c r="C109" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B110" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C110" s="0" t="n">
+      <c r="C110" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B111" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C111" s="0" t="n">
+      <c r="C111" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B112" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C112" s="0" t="n">
+      <c r="C112" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B113" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C113" s="0" t="n">
+      <c r="C113" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B114" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C114" s="0" t="n">
+      <c r="C114" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B115" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C115" s="0" t="n">
+      <c r="C115" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B116" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C116" s="0" t="n">
+      <c r="C116" s="1" t="n">
         <v>0</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>0</v>
+        <v>41519</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>13.5016308359701</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="I117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B118" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C118" s="0" t="n">
+      <c r="C118" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B119" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C119" s="0" t="n">
+      <c r="C119" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
       <c r="D119" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B120" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C120" s="0" t="n">
+      <c r="C120" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
       <c r="D120" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B121" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C121" s="0" t="n">
+      <c r="C121" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
       <c r="D121" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B122" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C122" s="0" t="n">
+      <c r="C122" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
       <c r="D122" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="B123" s="0" t="n">
-        <v>41519</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>13.5016308359701</v>
-      </c>
-      <c r="D123" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="I122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4702,20 +5391,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.17813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.39271255060729"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4756,10 +5445,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4768,12 +5460,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4782,12 +5474,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4796,12 +5488,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -4810,12 +5502,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -4824,12 +5516,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2905</v>
@@ -4838,12 +5530,12 @@
         <v>0.0213518146212669</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -4852,12 +5544,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2905</v>
@@ -4866,7 +5558,7 @@
         <v>0.0213518146212669</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4885,20 +5577,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4939,10 +5631,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -4951,12 +5646,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -4965,12 +5660,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -4979,10 +5674,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5004,20 +5699,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5058,10 +5753,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5070,12 +5768,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5084,12 +5782,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5098,12 +5796,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>26071</v>
@@ -5112,12 +5810,12 @@
         <v>0.260674600389267</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26087</v>
@@ -5126,12 +5824,12 @@
         <v>0.260834578664217</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5140,10 +5838,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5151,7 +5849,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5160,12 +5858,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5174,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -5193,19 +5891,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.17813765182186"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
@@ -5247,10 +5945,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5259,12 +5960,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5273,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5292,20 +5993,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5346,10 +6047,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5358,12 +6062,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5372,12 +6076,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5386,10 +6090,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -5397,7 +6101,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5406,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -5417,7 +6121,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5426,12 +6130,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5440,12 +6144,12 @@
         <v>0</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>105553</v>
@@ -5454,12 +6158,12 @@
         <v>6.14957341642061</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633653</v>
@@ -5468,12 +6172,12 @@
         <v>36.9169577751004</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1124488</v>
@@ -5482,12 +6186,12 @@
         <v>65.5132635915984</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -5496,12 +6200,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -5510,12 +6214,12 @@
         <v>0.000757386852230329</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>257669</v>
@@ -5524,12 +6228,12 @@
         <v>15.011931755949</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>591780</v>
@@ -5538,12 +6242,12 @@
         <v>34.4774147240665</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5552,12 +6256,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5566,10 +6270,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -5577,7 +6281,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -5586,12 +6290,12 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1226791</v>
@@ -5600,7 +6304,7 @@
         <v>71.4734902949614</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5619,20 +6323,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5673,10 +6377,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5685,12 +6392,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5699,12 +6406,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5713,12 +6420,12 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5727,12 +6434,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5741,12 +6448,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>749816</v>
@@ -5755,12 +6462,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5769,12 +6476,12 @@
         <v>0</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>749816</v>
@@ -5783,12 +6490,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>749816</v>
@@ -5797,12 +6504,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>305236</v>
@@ -5811,12 +6518,12 @@
         <v>7.94820837473622</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>767988</v>
@@ -5825,12 +6532,12 @@
         <v>19.9980626574091</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -5839,12 +6546,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -5853,12 +6560,12 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -5867,12 +6574,12 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -5881,12 +6588,12 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>749816</v>
@@ -5895,12 +6602,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -5909,12 +6616,12 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>749816</v>
@@ -5923,12 +6630,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>749816</v>
@@ -5937,12 +6644,12 @@
         <v>19.5248719374884</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>305236</v>
@@ -5951,12 +6658,12 @@
         <v>7.94820837473622</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -5965,10 +6672,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -5976,7 +6683,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -5985,12 +6692,12 @@
         <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -5999,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -6018,20 +6725,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.1052631578947"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1417004048583"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6072,10 +6779,13 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6084,12 +6794,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6098,12 +6808,12 @@
         <v>0</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6112,10 +6822,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -6123,7 +6833,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>372235</v>
@@ -6132,12 +6842,12 @@
         <v>22.2866650620819</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6146,12 +6856,12 @@
         <v>0</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -6160,12 +6870,12 @@
         <v>5.98725672279121E-005</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>895844</v>
@@ -6174,12 +6884,12 @@
         <v>53.6364801157217</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>385515</v>
@@ -6188,12 +6898,12 @@
         <v>23.0817727548685</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -6202,10 +6912,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>7</v>
@@ -6213,7 +6923,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6222,12 +6932,12 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6236,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>2</v>
@@ -6247,7 +6957,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6256,12 +6966,12 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>895844</v>
@@ -6270,12 +6980,12 @@
         <v>53.6364801157217</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1664263</v>
@@ -6284,12 +6994,12 @@
         <v>99.6436983524267</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1664263</v>
@@ -6298,12 +7008,12 @@
         <v>99.6436983524267</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6312,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>25</v>
@@ -6323,7 +7033,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6332,10 +7042,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -6343,7 +7053,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -6352,12 +7062,12 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -6366,10 +7076,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -6377,7 +7087,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -6386,10 +7096,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -6397,7 +7107,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>820405</v>
@@ -6406,10 +7116,10 @@
         <v>49.1197535166152</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6417,7 +7127,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6426,10 +7136,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -6437,7 +7147,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6446,10 +7156,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>28</v>
@@ -6457,7 +7167,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -6466,10 +7176,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -6477,7 +7187,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -6486,10 +7196,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -6497,7 +7207,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -6506,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -6517,7 +7227,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -6526,12 +7236,12 @@
         <v>0</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -6540,10 +7250,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>11</v>
@@ -6551,7 +7261,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>372230</v>
@@ -6560,12 +7270,12 @@
         <v>22.2863656992457</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -6574,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5</v>
@@ -6585,7 +7295,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>346</v>
@@ -6594,10 +7304,10 @@
         <v>0.0207159082608576</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>17</v>
@@ -6605,7 +7315,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>673065</v>
@@ -6614,12 +7324,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>673065</v>
@@ -6628,12 +7338,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>673065</v>
@@ -6642,12 +7352,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>673065</v>
@@ -6656,12 +7366,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>673065</v>
@@ -6670,12 +7380,12 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>673065</v>
@@ -6684,7 +7394,7 @@
         <v>40.2981294612547</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/03 scripts/all columns.xlsx
+++ b/03 scripts/all columns.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="257">
   <si>
     <t xml:space="preserve">column name</t>
   </si>
@@ -496,6 +496,9 @@
   </si>
   <si>
     <t xml:space="preserve">Imputer1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StandardScaler</t>
   </si>
   <si>
     <t xml:space="preserve">CategoricalImputer</t>
@@ -906,11 +909,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
@@ -2765,20 +2768,20 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3846153846154"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="79.5182186234818"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.6194331983806"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.3198380566802"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="17.7732793522267"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -2966,6 +2969,9 @@
       <c r="J7" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K7" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -2986,6 +2992,9 @@
       <c r="J8" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K8" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -3006,6 +3015,9 @@
       <c r="J9" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K9" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -3026,6 +3038,9 @@
       <c r="J10" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K10" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -3046,6 +3061,9 @@
       <c r="J11" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K11" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -3070,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K12" s="0" t="s">
         <v>152</v>
@@ -3090,13 +3108,13 @@
         <v>16</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>8</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>1</v>
@@ -3125,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>1</v>
@@ -3148,13 +3166,13 @@
         <v>16</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>6</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1</v>
@@ -3183,7 +3201,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1</v>
@@ -3211,6 +3229,9 @@
       <c r="J17" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K17" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -3231,6 +3252,9 @@
       <c r="J18" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K18" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -3251,6 +3275,9 @@
       <c r="J19" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K19" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
@@ -3271,6 +3298,9 @@
       <c r="J20" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K20" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -3291,6 +3321,9 @@
       <c r="J21" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K21" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -3311,6 +3344,9 @@
       <c r="J22" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K22" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -3331,6 +3367,9 @@
       <c r="J23" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K23" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -3351,6 +3390,9 @@
       <c r="J24" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K24" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -3371,6 +3413,9 @@
       <c r="J25" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K25" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -3391,6 +3436,9 @@
       <c r="J26" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K26" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
@@ -3411,6 +3459,9 @@
       <c r="J27" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K27" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
@@ -3431,6 +3482,9 @@
       <c r="J28" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K28" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
@@ -3452,13 +3506,13 @@
         <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>152</v>
@@ -3483,6 +3537,9 @@
       <c r="J30" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K30" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -3503,6 +3560,9 @@
       <c r="J31" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K31" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -3523,6 +3583,9 @@
       <c r="J32" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K32" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -3544,7 +3607,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>1</v>
@@ -3572,6 +3635,9 @@
       <c r="J34" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K34" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -3592,6 +3658,9 @@
       <c r="J35" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K35" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -3612,6 +3681,9 @@
       <c r="J36" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K36" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -3632,6 +3704,9 @@
       <c r="J37" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K37" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -3652,6 +3727,9 @@
       <c r="J38" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K38" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
@@ -3672,6 +3750,9 @@
       <c r="J39" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K39" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
@@ -3692,6 +3773,9 @@
       <c r="J40" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K40" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -3738,6 +3822,9 @@
       <c r="J42" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K42" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
@@ -3758,6 +3845,9 @@
       <c r="J43" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K43" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -3778,6 +3868,9 @@
       <c r="J44" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K44" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -3798,6 +3891,9 @@
       <c r="J45" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K45" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -3818,6 +3914,9 @@
       <c r="J46" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K46" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -3838,6 +3937,9 @@
       <c r="J47" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K47" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -3858,6 +3960,9 @@
       <c r="J48" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K48" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
@@ -3878,6 +3983,9 @@
       <c r="J49" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K49" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -3898,6 +4006,9 @@
       <c r="J50" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K50" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
@@ -3918,6 +4029,9 @@
       <c r="J51" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K51" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
@@ -3938,6 +4052,9 @@
       <c r="J52" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K52" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -3958,6 +4075,9 @@
       <c r="J53" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K53" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -3978,6 +4098,9 @@
       <c r="J54" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K54" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
@@ -3998,6 +4121,9 @@
       <c r="J55" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K55" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
@@ -4018,6 +4144,9 @@
       <c r="J56" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K56" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -4038,6 +4167,9 @@
       <c r="J57" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K57" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
@@ -4058,6 +4190,9 @@
       <c r="J58" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K58" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -4078,6 +4213,9 @@
       <c r="J59" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K59" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -4098,6 +4236,9 @@
       <c r="J60" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K60" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -4118,6 +4259,9 @@
       <c r="J61" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K61" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -4138,6 +4282,9 @@
       <c r="J62" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K62" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
@@ -4158,6 +4305,9 @@
       <c r="J63" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K63" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -4178,6 +4328,9 @@
       <c r="J64" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K64" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -4198,6 +4351,9 @@
       <c r="J65" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K65" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
@@ -4218,6 +4374,9 @@
       <c r="J66" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K66" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
@@ -4238,6 +4397,9 @@
       <c r="J67" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K67" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -4258,6 +4420,9 @@
       <c r="J68" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K68" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -4278,6 +4443,9 @@
       <c r="J69" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K69" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -4298,6 +4466,9 @@
       <c r="J70" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K70" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
@@ -4318,6 +4489,9 @@
       <c r="J71" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K71" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
@@ -4338,6 +4512,9 @@
       <c r="J72" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K72" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
@@ -4358,6 +4535,9 @@
       <c r="J73" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K73" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
@@ -4378,6 +4558,9 @@
       <c r="J74" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K74" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
@@ -4398,6 +4581,9 @@
       <c r="J75" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K75" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -4418,6 +4604,9 @@
       <c r="J76" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K76" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
@@ -4438,6 +4627,9 @@
       <c r="J77" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K77" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -4458,6 +4650,9 @@
       <c r="J78" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K78" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -4478,6 +4673,9 @@
       <c r="J79" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K79" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -4498,6 +4696,9 @@
       <c r="J80" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K80" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -4518,6 +4719,9 @@
       <c r="J81" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K81" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
@@ -4538,6 +4742,9 @@
       <c r="J82" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K82" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -4558,6 +4765,9 @@
       <c r="J83" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K83" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
@@ -4578,6 +4788,9 @@
       <c r="J84" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K84" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -4598,6 +4811,9 @@
       <c r="J85" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K85" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -4618,6 +4834,9 @@
       <c r="J86" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K86" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -4642,7 +4861,7 @@
         <v>1</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K87" s="0" t="s">
         <v>152</v>
@@ -4671,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K88" s="0" t="s">
         <v>152</v>
@@ -4696,6 +4915,9 @@
       <c r="J89" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K89" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -4720,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K90" s="0" t="s">
         <v>152</v>
@@ -4749,7 +4971,7 @@
         <v>1</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K91" s="0" t="s">
         <v>152</v>
@@ -4774,6 +4996,9 @@
       <c r="J92" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K92" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
@@ -4794,6 +5019,9 @@
       <c r="J93" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K93" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
@@ -4814,6 +5042,9 @@
       <c r="J94" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K94" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
@@ -4834,6 +5065,9 @@
       <c r="J95" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K95" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -4854,6 +5088,9 @@
       <c r="J96" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K96" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
@@ -4874,6 +5111,9 @@
       <c r="J97" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K97" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
@@ -4894,6 +5134,9 @@
       <c r="J98" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K98" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
@@ -4914,6 +5157,9 @@
       <c r="J99" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K99" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -4934,6 +5180,9 @@
       <c r="J100" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K100" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
@@ -4954,6 +5203,9 @@
       <c r="J101" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K101" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -4974,6 +5226,9 @@
       <c r="J102" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K102" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
@@ -4994,6 +5249,9 @@
       <c r="J103" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K103" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
@@ -5014,6 +5272,9 @@
       <c r="J104" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K104" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
@@ -5034,6 +5295,9 @@
       <c r="J105" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K105" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
@@ -5054,6 +5318,9 @@
       <c r="J106" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K106" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
@@ -5074,6 +5341,9 @@
       <c r="J107" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K107" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -5094,6 +5364,9 @@
       <c r="J108" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K108" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
@@ -5114,6 +5387,9 @@
       <c r="J109" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K109" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
@@ -5134,6 +5410,9 @@
       <c r="J110" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K110" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
@@ -5154,6 +5433,9 @@
       <c r="J111" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K111" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
@@ -5174,6 +5456,9 @@
       <c r="J112" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K112" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -5194,6 +5479,9 @@
       <c r="J113" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K113" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
@@ -5214,6 +5502,9 @@
       <c r="J114" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K114" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
@@ -5234,6 +5525,9 @@
       <c r="J115" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K115" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
@@ -5254,6 +5548,9 @@
       <c r="J116" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K116" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
@@ -5274,6 +5571,9 @@
       <c r="J117" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K117" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
@@ -5294,6 +5594,9 @@
       <c r="J118" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K118" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
@@ -5314,6 +5617,9 @@
       <c r="J119" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K119" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
@@ -5334,6 +5640,9 @@
       <c r="J120" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K120" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
@@ -5354,6 +5663,9 @@
       <c r="J121" s="0" t="s">
         <v>155</v>
       </c>
+      <c r="K121" s="0" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
@@ -5373,6 +5685,9 @@
       </c>
       <c r="J122" s="0" t="s">
         <v>155</v>
+      </c>
+      <c r="K122" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5399,12 +5714,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.39271255060729"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03643724696356"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5451,7 +5766,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5479,7 +5794,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5493,7 +5808,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5507,7 +5822,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5521,7 +5836,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2905</v>
@@ -5535,7 +5850,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5549,7 +5864,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2905</v>
@@ -5585,12 +5900,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5637,7 +5952,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5651,7 +5966,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5665,7 +5980,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5677,7 +5992,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -5707,12 +6022,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -5759,7 +6074,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5787,7 +6102,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5801,7 +6116,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>26071</v>
@@ -5815,7 +6130,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26087</v>
@@ -5829,7 +6144,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -5841,7 +6156,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -5849,7 +6164,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5863,7 +6178,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -5899,11 +6214,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.39271255060729"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.49797570850202"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
@@ -5965,7 +6280,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6001,12 +6316,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6067,7 +6382,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6081,7 +6396,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6093,7 +6408,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -6101,7 +6416,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6113,7 +6428,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -6121,7 +6436,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6135,7 +6450,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -6149,7 +6464,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>105553</v>
@@ -6163,7 +6478,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633653</v>
@@ -6177,7 +6492,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1124488</v>
@@ -6191,7 +6506,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6205,7 +6520,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -6219,7 +6534,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>257669</v>
@@ -6233,7 +6548,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>591780</v>
@@ -6247,7 +6562,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6261,7 +6576,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6273,7 +6588,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -6281,7 +6596,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6331,9 +6646,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -6383,7 +6698,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6411,7 +6726,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6425,7 +6740,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6439,7 +6754,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6453,7 +6768,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>749816</v>
@@ -6467,7 +6782,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -6481,7 +6796,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>749816</v>
@@ -6495,7 +6810,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>749816</v>
@@ -6509,7 +6824,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>305236</v>
@@ -6523,7 +6838,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>767988</v>
@@ -6537,7 +6852,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6551,7 +6866,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6565,7 +6880,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6579,7 +6894,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6593,7 +6908,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>749816</v>
@@ -6607,7 +6922,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6621,7 +6936,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>749816</v>
@@ -6635,7 +6950,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>749816</v>
@@ -6649,7 +6964,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>305236</v>
@@ -6663,7 +6978,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6675,7 +6990,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6683,7 +6998,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -6697,7 +7012,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -6733,9 +7048,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3198380566802"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -6785,7 +7100,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6825,7 +7140,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -6847,7 +7162,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6875,7 +7190,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>895844</v>
@@ -6937,7 +7252,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -6957,7 +7272,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6971,7 +7286,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>895844</v>
@@ -6985,7 +7300,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1664263</v>
@@ -6999,7 +7314,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1664263</v>
@@ -7013,7 +7328,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7025,7 +7340,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>25</v>
@@ -7033,7 +7348,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7045,7 +7360,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -7053,7 +7368,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7067,7 +7382,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7079,7 +7394,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -7087,7 +7402,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7099,7 +7414,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -7127,7 +7442,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7139,7 +7454,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -7147,7 +7462,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7159,7 +7474,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>28</v>
@@ -7167,7 +7482,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7179,7 +7494,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -7187,7 +7502,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7199,7 +7514,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -7207,7 +7522,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7219,7 +7534,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -7227,7 +7542,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7241,7 +7556,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7253,7 +7568,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>11</v>
@@ -7261,7 +7576,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>372230</v>
@@ -7275,7 +7590,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7287,7 +7602,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5</v>
@@ -7295,7 +7610,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>346</v>
@@ -7307,7 +7622,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>17</v>
@@ -7315,7 +7630,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>673065</v>
@@ -7329,7 +7644,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>673065</v>
@@ -7343,7 +7658,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>673065</v>
@@ -7357,7 +7672,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>673065</v>
@@ -7371,7 +7686,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>673065</v>
@@ -7385,7 +7700,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>673065</v>

--- a/03 scripts/all columns.xlsx
+++ b/03 scripts/all columns.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="256">
   <si>
     <t xml:space="preserve">column name</t>
   </si>
@@ -507,16 +507,13 @@
     <t xml:space="preserve">Businessman, Commercial associate, Maternity leave, Pensioner, State servant, Student, Unemployed, Working</t>
   </si>
   <si>
+    <t xml:space="preserve">Ordinal?</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORDINAL!</t>
   </si>
   <si>
-    <t xml:space="preserve">Ordinal?</t>
-  </si>
-  <si>
     <t xml:space="preserve">Civil marriage, Married, Separated, Single / not married, Unknown, Widow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nominal</t>
   </si>
   <si>
     <t xml:space="preserve">Nominal?</t>
@@ -904,7 +901,7 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2768,7 +2765,7 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
+      <selection pane="topLeft" activeCell="E87" activeCellId="0" sqref="A87:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3172,7 +3169,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>1</v>
@@ -3201,7 +3198,7 @@
         <v>6</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>1</v>
@@ -3506,7 +3503,7 @@
         <v>18</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>1</v>
@@ -3607,7 +3604,7 @@
         <v>7</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>1</v>
@@ -5709,7 +5706,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5766,7 +5763,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5794,7 +5791,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5808,7 +5805,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5822,7 +5819,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5836,7 +5833,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2905</v>
@@ -5850,7 +5847,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5864,7 +5861,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2905</v>
@@ -5895,7 +5892,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -5952,7 +5949,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5966,7 +5963,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5980,7 +5977,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5992,7 +5989,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -6017,7 +6014,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6074,7 +6071,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6102,7 +6099,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6116,7 +6113,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>26071</v>
@@ -6130,7 +6127,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26087</v>
@@ -6144,7 +6141,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -6156,7 +6153,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -6164,7 +6161,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -6178,7 +6175,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -6209,7 +6206,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6280,7 +6277,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6311,7 +6308,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6382,7 +6379,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6396,7 +6393,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6408,7 +6405,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -6416,7 +6413,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6428,7 +6425,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -6436,7 +6433,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6450,7 +6447,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -6464,7 +6461,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>105553</v>
@@ -6478,7 +6475,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633653</v>
@@ -6492,7 +6489,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1124488</v>
@@ -6506,7 +6503,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6520,7 +6517,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -6534,7 +6531,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>257669</v>
@@ -6548,7 +6545,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>591780</v>
@@ -6562,7 +6559,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6576,7 +6573,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6588,7 +6585,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -6596,7 +6593,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6641,7 +6638,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -6698,7 +6695,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6726,7 +6723,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6740,7 +6737,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6754,7 +6751,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6768,7 +6765,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>749816</v>
@@ -6782,7 +6779,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -6796,7 +6793,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>749816</v>
@@ -6810,7 +6807,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>749816</v>
@@ -6824,7 +6821,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>305236</v>
@@ -6838,7 +6835,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>767988</v>
@@ -6852,7 +6849,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6866,7 +6863,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6880,7 +6877,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6894,7 +6891,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6908,7 +6905,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>749816</v>
@@ -6922,7 +6919,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6936,7 +6933,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>749816</v>
@@ -6950,7 +6947,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>749816</v>
@@ -6964,7 +6961,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>305236</v>
@@ -6978,7 +6975,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6990,7 +6987,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6998,7 +6995,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7043,7 +7040,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="A87:E91 E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -7100,7 +7097,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7140,7 +7137,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -7162,7 +7159,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -7190,7 +7187,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>895844</v>
@@ -7252,7 +7249,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -7272,7 +7269,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -7286,7 +7283,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>895844</v>
@@ -7300,7 +7297,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1664263</v>
@@ -7314,7 +7311,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1664263</v>
@@ -7328,7 +7325,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7340,7 +7337,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>25</v>
@@ -7348,7 +7345,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7360,7 +7357,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -7368,7 +7365,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7382,7 +7379,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7394,7 +7391,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -7402,7 +7399,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7414,7 +7411,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -7442,7 +7439,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7454,7 +7451,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -7462,7 +7459,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7474,7 +7471,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>28</v>
@@ -7482,7 +7479,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7494,7 +7491,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -7502,7 +7499,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7514,7 +7511,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -7522,7 +7519,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7534,7 +7531,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -7542,7 +7539,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7556,7 +7553,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7568,7 +7565,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>11</v>
@@ -7576,7 +7573,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>372230</v>
@@ -7590,7 +7587,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7602,7 +7599,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5</v>
@@ -7610,7 +7607,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>346</v>
@@ -7622,7 +7619,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>17</v>
@@ -7630,7 +7627,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>673065</v>
@@ -7644,7 +7641,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>673065</v>
@@ -7658,7 +7655,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>673065</v>
@@ -7672,7 +7669,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>673065</v>
@@ -7686,7 +7683,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>673065</v>
@@ -7700,7 +7697,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>673065</v>

--- a/03 scripts/all columns.xlsx
+++ b/03 scripts/all columns.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1267" uniqueCount="334">
   <si>
     <t xml:space="preserve">column name</t>
   </si>
@@ -486,37 +486,272 @@
     <t xml:space="preserve">AMT_REQ_CREDIT_BUREAU_YEAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification if loan is cash or revolving</t>
+  </si>
+  <si>
     <t xml:space="preserve">LabelBinarizer</t>
   </si>
   <si>
+    <t xml:space="preserve">Gender of the client</t>
+  </si>
+  <si>
     <t xml:space="preserve">F, M, XNA</t>
   </si>
   <si>
     <t xml:space="preserve">Drop the 3rd cat?</t>
   </si>
   <si>
+    <t xml:space="preserve">Flag if the client owns a car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client owns a house or flat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of children the client has</t>
+  </si>
+  <si>
     <t xml:space="preserve">Imputer1D</t>
   </si>
   <si>
     <t xml:space="preserve">StandardScaler</t>
   </si>
   <si>
+    <t xml:space="preserve">Income of the client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit amount of the loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan annuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For consumer loans it is the price of the goods for which the loan is given</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Who was accompanying client when he was applying for the loan</t>
+  </si>
+  <si>
     <t xml:space="preserve">CategoricalImputer</t>
   </si>
   <si>
+    <t xml:space="preserve">Clients income type (businessman, working, maternity leave,+)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Businessman, Commercial associate, Maternity leave, Pensioner, State servant, Student, Unemployed, Working</t>
   </si>
   <si>
     <t xml:space="preserve">Ordinal?</t>
   </si>
   <si>
+    <t xml:space="preserve">Level of highest education the client achieved</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORDINAL!</t>
   </si>
   <si>
+    <t xml:space="preserve">Family status of the client</t>
+  </si>
+  <si>
     <t xml:space="preserve">Civil marriage, Married, Separated, Single / not married, Unknown, Widow</t>
   </si>
   <si>
+    <t xml:space="preserve">What is the housing situation of the client (renting, living with parents, ...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized population of region where client lives (higher number means the client lives in more populated region)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalized </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client's age in days at the time of application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time only relative to the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many days before the application the person started current employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many days before the application did client change his registration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many days before the application did client change the identity document with which he applied for the loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age of client's car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide mobile phone (1=YES, 0=NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide work phone (1=YES, 0=NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide home phone (1=YES, 0=NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was mobile phone reachable (1=YES, 0=NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide email (1=YES, 0=NO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What kind of occupation does the client have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many family members does client have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our rating of the region where client lives (1,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our rating of the region where client lives with taking city into account (1,2,3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On which day of the week did the client apply for the loan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nominal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approximately at what hour did the client apply for the loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rounded</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client's permanent address does not match contact address (1=different, 0=same, at region level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client's permanent address does not match work address (1=different, 0=same, at region level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client's contact address does not match work address (1=different, 0=same, at region level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client's permanent address does not match contact address (1=different, 0=same, at city level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client's permanent address does not match work address (1=different, 0=same, at city level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flag if client's contact address does not match work address (1=different, 0=same, at city level)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type of organization where client works</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized score from external data source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized information about building where the client lives, What is average (_AVG suffix), modus (_MODE suffix), median (_MEDI suffix) apartment size, common area, living area, age of building, number of elevators, number of entrances, state of the building, number of floor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many observation of client's social surroundings with observable 30 DPD (days past due) default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many observation of client's social surroundings defaulted on 30 DPD (days past due) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many observation of client's social surroundings with observable 60 DPD (days past due) default</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many observation of client's social surroundings defaulted on 60 (days past due) DPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many days before application did client change phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did client provide document 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of enquiries to Credit Bureau about the client one hour before application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of enquiries to Credit Bureau about the client one day before application (excluding one hour before application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of enquiries to Credit Bureau about the client one week before application (excluding one day before application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of enquiries to Credit Bureau about the client one month before application (excluding one week before application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of enquiries to Credit Bureau about the client 3 month before application (excluding one month before application)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of enquiries to Credit Bureau about the client one day year (excluding last 3 months before application)</t>
   </si>
   <si>
     <t xml:space="preserve">SK_ID_PREV</t>
@@ -901,16 +1136,16 @@
   <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
@@ -2762,24 +2997,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E87" activeCellId="0" sqref="A87:E91"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.6194331983806"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1255060728745"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.0607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="12" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2787,39 +3023,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2827,16 +3069,19 @@
       <c r="A2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="0" t="n">
+      <c r="B2" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,2847 +3089,3375 @@
       <c r="A3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>152</v>
+      <c r="K3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>152</v>
+        <v>159</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>152</v>
+      <c r="K5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>152</v>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>156</v>
+      <c r="B7" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>156</v>
+      <c r="B8" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>156</v>
+      <c r="B9" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="E10" s="1" t="n">
         <v>0.00390229942993909</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>156</v>
+      <c r="F10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>278</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="E11" s="1" t="n">
         <v>0.0904032701269223</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>156</v>
+      <c r="F11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D12" s="0" t="n">
         <v>1292</v>
       </c>
-      <c r="C12" s="1" t="n">
+      <c r="E12" s="1" t="n">
         <v>0.420147571956776</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="F12" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="G12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>152</v>
+      <c r="K12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" s="0" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="G14" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" s="0" t="s">
-        <v>152</v>
+        <v>175</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H15" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J15" s="0" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="0" t="s">
+      <c r="B16" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="G16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J16" s="0" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>156</v>
+      <c r="B17" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M17" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>156</v>
+      <c r="B18" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>156</v>
+      <c r="B19" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>156</v>
+      <c r="B20" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>156</v>
+      <c r="B21" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>202929</v>
       </c>
-      <c r="C22" s="1" t="n">
+      <c r="E22" s="1" t="n">
         <v>65.9908100848425</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>156</v>
+      <c r="F22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>156</v>
+      <c r="B23" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M23" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>156</v>
+      <c r="B24" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>156</v>
+      <c r="B25" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>156</v>
+      <c r="B26" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>156</v>
+      <c r="B27" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M27" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>156</v>
+      <c r="B28" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>96391</v>
       </c>
-      <c r="C29" s="1" t="n">
+      <c r="E29" s="1" t="n">
         <v>31.3455453626049</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="G29" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="H29" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J29" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>152</v>
+        <v>173</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="1" t="n">
+      <c r="E30" s="1" t="n">
         <v>0.000650383238323182</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>156</v>
+      <c r="F30" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M30" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>156</v>
+      <c r="B31" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K32" s="0" t="s">
-        <v>156</v>
+      <c r="B32" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M32" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C33" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="s">
+      <c r="B33" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="G33" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="H33" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="I33" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="J33" s="0" t="s">
-        <v>152</v>
+        <v>197</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>156</v>
+      <c r="B34" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M34" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>156</v>
+      <c r="B35" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M35" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>156</v>
+      <c r="B36" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>156</v>
+      <c r="B37" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M37" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>156</v>
+      <c r="B38" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M38" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>156</v>
+      <c r="B39" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M39" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>156</v>
+      <c r="B40" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M40" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" s="0" t="s">
+      <c r="B41" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="G41" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>58</v>
       </c>
-      <c r="I41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>152</v>
+      <c r="K41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D42" s="0" t="n">
         <v>173378</v>
       </c>
-      <c r="C42" s="1" t="n">
+      <c r="E42" s="1" t="n">
         <v>56.3810725469983</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>156</v>
+      <c r="F42" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M42" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="0" t="n">
         <v>660</v>
       </c>
-      <c r="C43" s="1" t="n">
+      <c r="E43" s="1" t="n">
         <v>0.21462646864665</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>156</v>
+      <c r="F43" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M43" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>60965</v>
       </c>
-      <c r="C44" s="1" t="n">
+      <c r="E44" s="1" t="n">
         <v>19.8253070621864</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>156</v>
+      <c r="F44" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="0" t="n">
         <v>156061</v>
       </c>
-      <c r="C45" s="1" t="n">
+      <c r="E45" s="1" t="n">
         <v>50.7497292779771</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>156</v>
+      <c r="F45" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M45" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D46" s="0" t="n">
         <v>179943</v>
       </c>
-      <c r="C46" s="1" t="n">
+      <c r="E46" s="1" t="n">
         <v>58.5159555267942</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>156</v>
+      <c r="F46" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M46" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D47" s="0" t="n">
         <v>150007</v>
       </c>
-      <c r="C47" s="1" t="n">
+      <c r="E47" s="1" t="n">
         <v>48.7810192155728</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>156</v>
+      <c r="F47" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M47" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="0" t="n">
         <v>204488</v>
       </c>
-      <c r="C48" s="1" t="n">
+      <c r="E48" s="1" t="n">
         <v>66.4977838191154</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>156</v>
+      <c r="F48" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M48" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="0" t="n">
+      <c r="B49" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="0" t="n">
         <v>214865</v>
       </c>
-      <c r="C49" s="1" t="n">
+      <c r="E49" s="1" t="n">
         <v>69.8722972511552</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>156</v>
+      <c r="F49" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B50" s="0" t="n">
+      <c r="B50" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D50" s="0" t="n">
         <v>163891</v>
       </c>
-      <c r="C50" s="1" t="n">
+      <c r="E50" s="1" t="n">
         <v>53.2959796560123</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>156</v>
+      <c r="F50" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B51" s="0" t="n">
+      <c r="B51" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D51" s="0" t="n">
         <v>154828</v>
       </c>
-      <c r="C51" s="1" t="n">
+      <c r="E51" s="1" t="n">
         <v>50.3487680115508</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>156</v>
+      <c r="F51" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M51" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="B52" s="0" t="n">
+      <c r="B52" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D52" s="0" t="n">
         <v>153020</v>
       </c>
-      <c r="C52" s="1" t="n">
+      <c r="E52" s="1" t="n">
         <v>49.7608215641067</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>156</v>
+      <c r="F52" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M52" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B53" s="0" t="n">
+      <c r="B53" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="0" t="n">
         <v>208642</v>
       </c>
-      <c r="C53" s="1" t="n">
+      <c r="E53" s="1" t="n">
         <v>67.8486298051127</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>156</v>
+      <c r="F53" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M53" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B54" s="0" t="n">
+      <c r="B54" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D54" s="0" t="n">
         <v>182590</v>
       </c>
-      <c r="C54" s="1" t="n">
+      <c r="E54" s="1" t="n">
         <v>59.3767377427149</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>156</v>
+      <c r="F54" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B55" s="0" t="n">
+      <c r="B55" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="0" t="n">
         <v>210199</v>
       </c>
-      <c r="C55" s="1" t="n">
+      <c r="E55" s="1" t="n">
         <v>68.3549531561473</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>156</v>
+      <c r="F55" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M55" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B56" s="0" t="n">
+      <c r="B56" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" s="0" t="n">
         <v>154350</v>
       </c>
-      <c r="C56" s="1" t="n">
+      <c r="E56" s="1" t="n">
         <v>50.1933264175916</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>156</v>
+      <c r="F56" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B57" s="0" t="n">
+      <c r="B57" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D57" s="0" t="n">
         <v>213514</v>
       </c>
-      <c r="C57" s="1" t="n">
+      <c r="E57" s="1" t="n">
         <v>69.4329633736679</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>156</v>
+      <c r="F57" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B58" s="0" t="n">
+      <c r="B58" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="0" t="n">
         <v>169682</v>
       </c>
-      <c r="C58" s="1" t="n">
+      <c r="E58" s="1" t="n">
         <v>55.1791643225771</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>156</v>
+      <c r="F58" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M58" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B59" s="0" t="n">
+      <c r="B59" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="0" t="n">
         <v>156061</v>
       </c>
-      <c r="C59" s="1" t="n">
+      <c r="E59" s="1" t="n">
         <v>50.7497292779771</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>156</v>
+      <c r="F59" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M59" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B60" s="0" t="n">
+      <c r="B60" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" s="0" t="n">
         <v>179943</v>
       </c>
-      <c r="C60" s="1" t="n">
+      <c r="E60" s="1" t="n">
         <v>58.5159555267942</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>156</v>
+      <c r="F60" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B61" s="0" t="n">
+      <c r="B61" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D61" s="0" t="n">
         <v>150007</v>
       </c>
-      <c r="C61" s="1" t="n">
+      <c r="E61" s="1" t="n">
         <v>48.7810192155728</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>156</v>
+      <c r="F61" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M61" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B62" s="0" t="n">
+      <c r="B62" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="0" t="n">
         <v>204488</v>
       </c>
-      <c r="C62" s="1" t="n">
+      <c r="E62" s="1" t="n">
         <v>66.4977838191154</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K62" s="0" t="s">
-        <v>156</v>
+      <c r="F62" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M62" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B63" s="0" t="n">
+      <c r="B63" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="0" t="n">
         <v>214865</v>
       </c>
-      <c r="C63" s="1" t="n">
+      <c r="E63" s="1" t="n">
         <v>69.8722972511552</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K63" s="0" t="s">
-        <v>156</v>
+      <c r="F63" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="0" t="n">
+      <c r="B64" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="0" t="n">
         <v>163891</v>
       </c>
-      <c r="C64" s="1" t="n">
+      <c r="E64" s="1" t="n">
         <v>53.2959796560123</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K64" s="0" t="s">
-        <v>156</v>
+      <c r="F64" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M64" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B65" s="0" t="n">
+      <c r="B65" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="0" t="n">
         <v>154828</v>
       </c>
-      <c r="C65" s="1" t="n">
+      <c r="E65" s="1" t="n">
         <v>50.3487680115508</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K65" s="0" t="s">
-        <v>156</v>
+      <c r="F65" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M65" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="B66" s="0" t="n">
+      <c r="B66" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="0" t="n">
         <v>153020</v>
       </c>
-      <c r="C66" s="1" t="n">
+      <c r="E66" s="1" t="n">
         <v>49.7608215641067</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K66" s="0" t="s">
-        <v>156</v>
+      <c r="F66" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B67" s="0" t="n">
+      <c r="B67" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="0" t="n">
         <v>208642</v>
       </c>
-      <c r="C67" s="1" t="n">
+      <c r="E67" s="1" t="n">
         <v>67.8486298051127</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K67" s="0" t="s">
-        <v>156</v>
+      <c r="F67" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M67" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="0" t="n">
+      <c r="B68" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="0" t="n">
         <v>182590</v>
       </c>
-      <c r="C68" s="1" t="n">
+      <c r="E68" s="1" t="n">
         <v>59.3767377427149</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K68" s="0" t="s">
-        <v>156</v>
+      <c r="F68" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B69" s="0" t="n">
+      <c r="B69" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="0" t="n">
         <v>210199</v>
       </c>
-      <c r="C69" s="1" t="n">
+      <c r="E69" s="1" t="n">
         <v>68.3549531561473</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K69" s="0" t="s">
-        <v>156</v>
+      <c r="F69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B70" s="0" t="n">
+      <c r="B70" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="0" t="n">
         <v>154350</v>
       </c>
-      <c r="C70" s="1" t="n">
+      <c r="E70" s="1" t="n">
         <v>50.1933264175916</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K70" s="0" t="s">
-        <v>156</v>
+      <c r="F70" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="0" t="n">
+      <c r="B71" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="0" t="n">
         <v>213514</v>
       </c>
-      <c r="C71" s="1" t="n">
+      <c r="E71" s="1" t="n">
         <v>69.4329633736679</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K71" s="0" t="s">
-        <v>156</v>
+      <c r="F71" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B72" s="0" t="n">
+      <c r="B72" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="0" t="n">
         <v>169682</v>
       </c>
-      <c r="C72" s="1" t="n">
+      <c r="E72" s="1" t="n">
         <v>55.1791643225771</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K72" s="0" t="s">
-        <v>156</v>
+      <c r="F72" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M72" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B73" s="0" t="n">
+      <c r="B73" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="0" t="n">
         <v>156061</v>
       </c>
-      <c r="C73" s="1" t="n">
+      <c r="E73" s="1" t="n">
         <v>50.7497292779771</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K73" s="0" t="s">
-        <v>156</v>
+      <c r="F73" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M73" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B74" s="0" t="n">
+      <c r="B74" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="0" t="n">
         <v>179943</v>
       </c>
-      <c r="C74" s="1" t="n">
+      <c r="E74" s="1" t="n">
         <v>58.5159555267942</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K74" s="0" t="s">
-        <v>156</v>
+      <c r="F74" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M74" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B75" s="0" t="n">
+      <c r="B75" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="0" t="n">
         <v>150007</v>
       </c>
-      <c r="C75" s="1" t="n">
+      <c r="E75" s="1" t="n">
         <v>48.7810192155728</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K75" s="0" t="s">
-        <v>156</v>
+      <c r="F75" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M75" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B76" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" s="0" t="n">
         <v>204488</v>
       </c>
-      <c r="C76" s="1" t="n">
+      <c r="E76" s="1" t="n">
         <v>66.4977838191154</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K76" s="0" t="s">
-        <v>156</v>
+      <c r="F76" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M76" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B77" s="0" t="n">
+      <c r="B77" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="0" t="n">
         <v>214865</v>
       </c>
-      <c r="C77" s="1" t="n">
+      <c r="E77" s="1" t="n">
         <v>69.8722972511552</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>156</v>
+      <c r="F77" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M77" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B78" s="0" t="n">
+      <c r="B78" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="0" t="n">
         <v>163891</v>
       </c>
-      <c r="C78" s="1" t="n">
+      <c r="E78" s="1" t="n">
         <v>53.2959796560123</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K78" s="0" t="s">
-        <v>156</v>
+      <c r="F78" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="0" t="n">
+      <c r="B79" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="0" t="n">
         <v>154828</v>
       </c>
-      <c r="C79" s="1" t="n">
+      <c r="E79" s="1" t="n">
         <v>50.3487680115508</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>156</v>
+      <c r="F79" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M79" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B80" s="0" t="n">
+      <c r="B80" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D80" s="0" t="n">
         <v>153020</v>
       </c>
-      <c r="C80" s="1" t="n">
+      <c r="E80" s="1" t="n">
         <v>49.7608215641067</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>156</v>
+      <c r="F80" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B81" s="0" t="n">
+      <c r="B81" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D81" s="0" t="n">
         <v>208642</v>
       </c>
-      <c r="C81" s="1" t="n">
+      <c r="E81" s="1" t="n">
         <v>67.8486298051127</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I81" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>156</v>
+      <c r="F81" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M81" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B82" s="0" t="n">
+      <c r="B82" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="0" t="n">
         <v>182590</v>
       </c>
-      <c r="C82" s="1" t="n">
+      <c r="E82" s="1" t="n">
         <v>59.3767377427149</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>156</v>
+      <c r="F82" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B83" s="0" t="n">
+      <c r="B83" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="0" t="n">
         <v>210199</v>
       </c>
-      <c r="C83" s="1" t="n">
+      <c r="E83" s="1" t="n">
         <v>68.3549531561473</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>156</v>
+      <c r="F83" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="0" t="n">
+      <c r="B84" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D84" s="0" t="n">
         <v>154350</v>
       </c>
-      <c r="C84" s="1" t="n">
+      <c r="E84" s="1" t="n">
         <v>50.1933264175916</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>156</v>
+      <c r="F84" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M84" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B85" s="0" t="n">
+      <c r="B85" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D85" s="0" t="n">
         <v>213514</v>
       </c>
-      <c r="C85" s="1" t="n">
+      <c r="E85" s="1" t="n">
         <v>69.4329633736679</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>156</v>
+      <c r="F85" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M85" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B86" s="0" t="n">
+      <c r="B86" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D86" s="0" t="n">
         <v>169682</v>
       </c>
-      <c r="C86" s="1" t="n">
+      <c r="E86" s="1" t="n">
         <v>55.1791643225771</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>156</v>
+      <c r="F86" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M86" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B87" s="0" t="n">
+      <c r="B87" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="0" t="n">
         <v>210295</v>
       </c>
-      <c r="C87" s="1" t="n">
+      <c r="E87" s="1" t="n">
         <v>68.3861715515868</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="F87" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="G87" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="F87" s="0" t="n">
+      <c r="H87" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>152</v>
+      <c r="K87" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M87" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B88" s="0" t="n">
+      <c r="B88" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D88" s="0" t="n">
         <v>154297</v>
       </c>
-      <c r="C88" s="1" t="n">
+      <c r="E88" s="1" t="n">
         <v>50.176091261776</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="F88" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="G88" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="F88" s="0" t="n">
+      <c r="H88" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I88" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>152</v>
+      <c r="K88" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M88" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B89" s="0" t="n">
+      <c r="B89" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D89" s="0" t="n">
         <v>148431</v>
       </c>
-      <c r="C89" s="1" t="n">
+      <c r="E89" s="1" t="n">
         <v>48.2685172237741</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I89" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>156</v>
+      <c r="F89" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B90" s="0" t="n">
+      <c r="B90" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="0" t="n">
         <v>156341</v>
       </c>
-      <c r="C90" s="1" t="n">
+      <c r="E90" s="1" t="n">
         <v>50.8407829313423</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="F90" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="G90" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="F90" s="0" t="n">
+      <c r="H90" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>152</v>
+      <c r="K90" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M90" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B91" s="0" t="n">
+      <c r="B91" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="0" t="n">
         <v>145755</v>
       </c>
-      <c r="C91" s="1" t="n">
+      <c r="E91" s="1" t="n">
         <v>47.3983044508977</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="F91" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="G91" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="F91" s="0" t="n">
+      <c r="H91" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I91" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="K91" s="0" t="s">
-        <v>152</v>
+      <c r="K91" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="M91" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B92" s="0" t="n">
+      <c r="B92" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="D92" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C92" s="1" t="n">
+      <c r="E92" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
-      <c r="D92" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>156</v>
+      <c r="F92" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B93" s="0" t="n">
+      <c r="B93" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D93" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C93" s="1" t="n">
+      <c r="E93" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K93" s="0" t="s">
-        <v>156</v>
+      <c r="F93" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M93" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="0" t="n">
+      <c r="B94" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C94" s="1" t="n">
+      <c r="E94" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I94" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K94" s="0" t="s">
-        <v>156</v>
+      <c r="F94" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="0" t="n">
+      <c r="B95" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" s="0" t="n">
         <v>1021</v>
       </c>
-      <c r="C95" s="1" t="n">
+      <c r="E95" s="1" t="n">
         <v>0.332020643163984</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K95" s="0" t="s">
-        <v>156</v>
+      <c r="F95" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M95" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" s="1" t="n">
+      <c r="B96" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="1" t="n">
         <v>0.000325191619161591</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K96" s="0" t="s">
-        <v>156</v>
+      <c r="F96" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M96" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B97" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K97" s="0" t="s">
-        <v>156</v>
+      <c r="B97" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M97" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="B98" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K98" s="0" t="s">
-        <v>156</v>
+      <c r="B98" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M98" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B99" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C99" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K99" s="0" t="s">
-        <v>156</v>
+      <c r="B99" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M99" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B100" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C100" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J100" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K100" s="0" t="s">
-        <v>156</v>
+      <c r="B100" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M100" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C101" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K101" s="0" t="s">
-        <v>156</v>
+      <c r="B101" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D101" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M101" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B102" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C102" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J102" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K102" s="0" t="s">
-        <v>156</v>
+      <c r="B102" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M102" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B103" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C103" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K103" s="0" t="s">
-        <v>156</v>
+      <c r="B103" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M103" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J104" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K104" s="0" t="s">
-        <v>156</v>
+      <c r="B104" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D104" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M104" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B105" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K105" s="0" t="s">
-        <v>156</v>
+      <c r="B105" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D105" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M105" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C106" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K106" s="0" t="s">
-        <v>156</v>
+      <c r="B106" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M106" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B107" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C107" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I107" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K107" s="0" t="s">
-        <v>156</v>
+      <c r="B107" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M107" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I108" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J108" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K108" s="0" t="s">
-        <v>156</v>
+      <c r="B108" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M108" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K109" s="0" t="s">
-        <v>156</v>
+      <c r="B109" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M109" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="B110" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K110" s="0" t="s">
-        <v>156</v>
+      <c r="B110" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M110" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B111" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C111" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I111" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K111" s="0" t="s">
-        <v>156</v>
+      <c r="B111" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M111" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I112" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K112" s="0" t="s">
-        <v>156</v>
+      <c r="B112" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M112" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K113" s="0" t="s">
-        <v>156</v>
+      <c r="B113" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="D113" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M113" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="B114" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I114" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K114" s="0" t="s">
-        <v>156</v>
+      <c r="B114" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D114" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M114" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B115" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K115" s="0" t="s">
-        <v>156</v>
+      <c r="B115" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="D115" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M115" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="I116" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K116" s="0" t="s">
-        <v>156</v>
+      <c r="B116" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M116" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B117" s="0" t="n">
+      <c r="B117" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="D117" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C117" s="1" t="n">
+      <c r="E117" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
-      <c r="D117" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I117" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K117" s="0" t="s">
-        <v>156</v>
+      <c r="F117" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M117" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="0" t="n">
+      <c r="B118" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C118" s="1" t="n">
+      <c r="E118" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
-      <c r="D118" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I118" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K118" s="0" t="s">
-        <v>156</v>
+      <c r="F118" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M118" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B119" s="0" t="n">
+      <c r="B119" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="D119" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C119" s="1" t="n">
+      <c r="E119" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
-      <c r="D119" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I119" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K119" s="0" t="s">
-        <v>156</v>
+      <c r="F119" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M119" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B120" s="0" t="n">
+      <c r="B120" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D120" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C120" s="1" t="n">
+      <c r="E120" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
-      <c r="D120" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K120" s="0" t="s">
-        <v>156</v>
+      <c r="F120" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M120" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="0" t="n">
+      <c r="B121" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="D121" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C121" s="1" t="n">
+      <c r="E121" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
-      <c r="D121" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K121" s="0" t="s">
-        <v>156</v>
+      <c r="F121" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M121" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B122" s="0" t="n">
+      <c r="B122" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="D122" s="0" t="n">
         <v>41519</v>
       </c>
-      <c r="C122" s="1" t="n">
+      <c r="E122" s="1" t="n">
         <v>13.5016308359701</v>
       </c>
-      <c r="D122" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="J122" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="K122" s="0" t="s">
-        <v>156</v>
+      <c r="F122" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="M122" s="0" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5706,14 +6479,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.03643724696356"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -5763,7 +6536,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5791,7 +6564,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>164</v>
+        <v>242</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5805,7 +6578,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>165</v>
+        <v>243</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -5819,7 +6592,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>166</v>
+        <v>244</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -5833,7 +6606,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2905</v>
@@ -5847,7 +6620,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>168</v>
+        <v>246</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -5861,7 +6634,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2905</v>
@@ -5892,14 +6665,14 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -5949,7 +6722,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -5963,7 +6736,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -5977,7 +6750,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -5989,7 +6762,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>8</v>
@@ -6014,14 +6787,14 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.74898785425101"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -6071,7 +6844,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6099,7 +6872,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6113,7 +6886,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>252</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>26071</v>
@@ -6127,7 +6900,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>26087</v>
@@ -6141,7 +6914,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -6153,7 +6926,7 @@
         <v>16</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>177</v>
+        <v>255</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>9</v>
@@ -6161,7 +6934,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -6175,7 +6948,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -6206,14 +6979,14 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.03643724696356"/>
@@ -6277,7 +7050,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>180</v>
+        <v>258</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6308,16 +7081,16 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
@@ -6379,7 +7152,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0</v>
@@ -6393,7 +7166,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6405,7 +7178,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -6413,7 +7186,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6425,7 +7198,7 @@
         <v>16</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -6433,7 +7206,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>185</v>
+        <v>263</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6447,7 +7220,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>186</v>
+        <v>264</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -6461,7 +7234,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>187</v>
+        <v>265</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>105553</v>
@@ -6475,7 +7248,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>633653</v>
@@ -6489,7 +7262,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>189</v>
+        <v>267</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1124488</v>
@@ -6503,7 +7276,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
@@ -6517,7 +7290,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>191</v>
+        <v>269</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>13</v>
@@ -6531,7 +7304,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>257669</v>
@@ -6545,7 +7318,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>193</v>
+        <v>271</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>591780</v>
@@ -6559,7 +7332,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>194</v>
+        <v>272</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6573,7 +7346,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>195</v>
+        <v>273</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6585,7 +7358,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -6593,7 +7366,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -6638,14 +7411,14 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A87:E91 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1336032388664"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3481781376518"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -6695,7 +7468,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -6723,7 +7496,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
@@ -6737,7 +7510,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>198</v>
+        <v>276</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -6751,7 +7524,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>199</v>
+        <v>277</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -6765,7 +7538,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>749816</v>
@@ -6779,7 +7552,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -6793,7 +7566,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>202</v>
+        <v>280</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>749816</v>
@@ -6807,7 +7580,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>749816</v>
@@ -6821,7 +7594,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>204</v>
+        <v>282</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>305236</v>
@@ -6835,7 +7608,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>767988</v>
@@ -6849,7 +7622,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>206</v>
+        <v>284</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -6863,7 +7636,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -6877,7 +7650,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -6891,7 +7664,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0</v>
@@ -6905,7 +7678,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>749816</v>
@@ -6919,7 +7692,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -6933,7 +7706,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>749816</v>
@@ -6947,7 +7720,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>749816</v>
@@ -6961,7 +7734,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>305236</v>
@@ -6975,7 +7748,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0</v>
@@ -6987,7 +7760,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>215</v>
+        <v>293</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>7</v>
@@ -6995,7 +7768,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7009,7 +7782,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>179</v>
+        <v>257</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7040,14 +7813,14 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="1" sqref="A87:E91 E29"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3886639676113"/>
@@ -7097,7 +7870,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>163</v>
+        <v>241</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -7137,7 +7910,7 @@
         <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>216</v>
+        <v>294</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>4</v>
@@ -7159,7 +7932,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>217</v>
+        <v>295</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -7187,7 +7960,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>218</v>
+        <v>296</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>895844</v>
@@ -7249,7 +8022,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>219</v>
+        <v>297</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -7269,7 +8042,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>220</v>
+        <v>298</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -7283,7 +8056,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>221</v>
+        <v>299</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>895844</v>
@@ -7297,7 +8070,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>222</v>
+        <v>300</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1664263</v>
@@ -7311,7 +8084,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>223</v>
+        <v>301</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1664263</v>
@@ -7325,7 +8098,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>224</v>
+        <v>302</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -7337,7 +8110,7 @@
         <v>16</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>25</v>
@@ -7345,7 +8118,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>176</v>
+        <v>254</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -7357,7 +8130,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>226</v>
+        <v>304</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>4</v>
@@ -7365,7 +8138,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>227</v>
+        <v>305</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -7379,7 +8152,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>228</v>
+        <v>306</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>0</v>
@@ -7391,7 +8164,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>229</v>
+        <v>307</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>4</v>
@@ -7399,7 +8172,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>0</v>
@@ -7411,7 +8184,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>9</v>
@@ -7439,7 +8212,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>232</v>
+        <v>310</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>0</v>
@@ -7451,7 +8224,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>233</v>
+        <v>311</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>4</v>
@@ -7459,7 +8232,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>0</v>
@@ -7471,7 +8244,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>28</v>
@@ -7479,7 +8252,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>236</v>
+        <v>314</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>0</v>
@@ -7491,7 +8264,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>237</v>
+        <v>315</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>5</v>
@@ -7499,7 +8272,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>238</v>
+        <v>316</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>0</v>
@@ -7511,7 +8284,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>239</v>
+        <v>317</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>3</v>
@@ -7519,7 +8292,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>240</v>
+        <v>318</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0</v>
@@ -7531,7 +8304,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>241</v>
+        <v>319</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>8</v>
@@ -7539,7 +8312,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>0</v>
@@ -7553,7 +8326,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>243</v>
+        <v>321</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>0</v>
@@ -7565,7 +8338,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>244</v>
+        <v>322</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>11</v>
@@ -7573,7 +8346,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>372230</v>
@@ -7587,7 +8360,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>0</v>
@@ -7599,7 +8372,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>247</v>
+        <v>325</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>5</v>
@@ -7607,7 +8380,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>346</v>
@@ -7619,7 +8392,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>17</v>
@@ -7627,7 +8400,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>250</v>
+        <v>328</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>673065</v>
@@ -7641,7 +8414,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>251</v>
+        <v>329</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>673065</v>
@@ -7655,7 +8428,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>252</v>
+        <v>330</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>673065</v>
@@ -7669,7 +8442,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>673065</v>
@@ -7683,7 +8456,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>673065</v>
@@ -7697,7 +8470,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>673065</v>
